--- a/src/main/resources/com/relative/QuskiAutomotriz/Matrices/ResultadosPoliticas.xlsx
+++ b/src/main/resources/com/relative/QuskiAutomotriz/Matrices/ResultadosPoliticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4168ccd2be4a7b9a/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{5CF43E3A-7C59-4309-B736-6FB9D3310C7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{80687E0A-FD8C-46EF-B98A-6A2A54733DC1}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{5CF43E3A-7C59-4309-B736-6FB9D3310C7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{134567FE-04AB-4A30-8D68-0E793213973C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1143,7 +1143,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>9</v>
